--- a/Results/CFA/jdrfactors_reliability.xlsx
+++ b/Results/CFA/jdrfactors_reliability.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>emotional_demands</t>
   </si>
@@ -20,7 +20,10 @@
     <t>quantitative_demands</t>
   </si>
   <si>
-    <t>work_resources</t>
+    <t>pace_d</t>
+  </si>
+  <si>
+    <t>job_control_resources</t>
   </si>
   <si>
     <t>participation_resources</t>
@@ -118,143 +121,164 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6103020484377162</v>
+        <v>0.6223907768472776</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6686166915257996</v>
+        <v>0.6670791334367365</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5355943215069369</v>
+        <v>0.4689877974632616</v>
       </c>
       <c r="E2" t="n">
-        <v>0.760114272972128</v>
+        <v>0.5329979296975149</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6818110032300775</v>
+        <v>0.7540658391791917</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8966194458660862</v>
+        <v>0.6773863901323436</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.897532136414736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6660890409674372</v>
+        <v>0.6762860934091273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6912894497771547</v>
+        <v>0.6915129146071943</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8284605777348029</v>
+        <v>0.6538227316531541</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8030743065271931</v>
+        <v>0.830601046500264</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7878567837346235</v>
+        <v>0.7973107813829169</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9282013830646086</v>
+        <v>0.7841196026524542</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9282899101568494</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.642788383386331</v>
+        <v>0.6452384890392882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7643748611260959</v>
+        <v>0.6549396116088109</v>
       </c>
       <c r="D4" t="n">
-        <v>0.646331528950433</v>
+        <v>0.4777525925065793</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7688853178257695</v>
+        <v>0.6131261856702879</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7366570622790929</v>
+        <v>0.7613329012929871</v>
       </c>
       <c r="G4" t="n">
-        <v>0.907200504986516</v>
+        <v>0.7096785087920824</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.903708262051065</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.642788383386331</v>
+        <v>0.6452384890392882</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7643748611260959</v>
+        <v>0.6549396116088109</v>
       </c>
       <c r="D5" t="n">
-        <v>0.646331528950433</v>
+        <v>0.4777525925065793</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7688853178257695</v>
+        <v>0.6131261856702879</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7366570622790929</v>
+        <v>0.7613329012929871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.907200504986516</v>
+        <v>0.7096785087920824</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.903708262051065</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.641272576675458</v>
+        <v>0.641327550782846</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7995720986078809</v>
+        <v>0.6180162841046081</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6980915409477156</v>
+        <v>0.47720624982587995</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7703211114098375</v>
+        <v>0.6414654824543592</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7638611626666537</v>
+        <v>0.7615035583383543</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9167046966887059</v>
+        <v>0.7170447882460584</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9002429743870664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.44341884530076264</v>
+        <v>0.4429471411478641</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5400015251729037</v>
+        <v>0.4341309948268291</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5991029600340518</v>
+        <v>0.4047788844381713</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5777524248672022</v>
+        <v>0.5814063420576864</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5832149876200602</v>
+        <v>0.5672005969737763</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6598113473913332</v>
+        <v>0.5522274921366401</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6514262541307417</v>
       </c>
     </row>
   </sheetData>
